--- a/03 - Documento ABET/Validaciones.xlsx
+++ b/03 - Documento ABET/Validaciones.xlsx
@@ -2,12 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="84">
   <si>
     <t>Linguistic rules validations</t>
   </si>
@@ -195,9 +196,6 @@
     <t xml:space="preserve">AC-OR-4 </t>
   </si>
   <si>
-    <t>The generated editor validates cardinality</t>
-  </si>
-  <si>
     <t xml:space="preserve">AC-OR-5 </t>
   </si>
   <si>
@@ -259,13 +257,28 @@
   </si>
   <si>
     <t xml:space="preserve">The quantity of CrossRelation instances belong to one Element instance is lower than the lower bound in the domain metamodel or greater than the upper bound in the domain metamodel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided in the intermediate metamodel validation </t>
+  </si>
+  <si>
+    <t>Not used</t>
+  </si>
+  <si>
+    <t>Provided in the intermediate metamodel construction</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>The generated editor can not validate cardinality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,8 +313,14 @@
       <color theme="1"/>
       <name val="Avenir Book"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,18 +330,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +358,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -469,29 +476,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="135">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -550,6 +580,15 @@
     <cellStyle name="Hipervínculo" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -608,6 +647,15 @@
     <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -939,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -951,582 +999,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="16">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="C21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="3" t="s">
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3" t="s">
+    <row r="24" spans="1:5" ht="16">
+      <c r="A24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16">
+      <c r="A26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16">
+      <c r="A27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16">
+      <c r="A28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16">
+      <c r="A29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16">
+      <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16">
+      <c r="A31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16">
+      <c r="A32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16">
+      <c r="A33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16">
-      <c r="A22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="7" t="s">
+    <row r="34" spans="1:5" ht="16">
+      <c r="A34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16">
+      <c r="A35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16">
-      <c r="A24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16">
-      <c r="A27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16">
-      <c r="A28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16">
-      <c r="A29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16">
-      <c r="A30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16">
-      <c r="A31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16">
-      <c r="A32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16">
-      <c r="A33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16">
-      <c r="A34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:5" ht="16">
+      <c r="A36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16">
-      <c r="A36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>24</v>
+      <c r="C36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1542,4 +1590,614 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="5" width="47.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45">
+      <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="A24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30">
+      <c r="A26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45">
+      <c r="A28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45">
+      <c r="A29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60">
+      <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="60">
+      <c r="A31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45">
+      <c r="A32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60">
+      <c r="A33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60">
+      <c r="A34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="60">
+      <c r="A35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60">
+      <c r="A36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A16:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>